--- a/step2 top-k and word embedding/bert/Task2_BERT_Similarity.xlsx
+++ b/step2 top-k and word embedding/bert/Task2_BERT_Similarity.xlsx
@@ -495,31 +495,31 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6778263449668884</v>
+        <v>0.6912099719047546</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7454752326011658</v>
+        <v>0.7541998624801636</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8792461156845093</v>
+        <v>0.8820524215698242</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7290616035461426</v>
+        <v>0.7455089688301086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6241777539253235</v>
+        <v>0.6300911903381348</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7133947014808655</v>
+        <v>0.7320921421051025</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7333975434303284</v>
+        <v>0.7435910105705261</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8054696917533875</v>
+        <v>0.8422662019729614</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8457931280136108</v>
+        <v>0.8431347608566284</v>
       </c>
     </row>
     <row r="3">
@@ -529,34 +529,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6778263449668884</v>
+        <v>0.6912099719047546</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9999998807907104</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7192419767379761</v>
+        <v>0.7323428392410278</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6774135828018188</v>
+        <v>0.6839439868927002</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9176108837127686</v>
+        <v>0.9084877967834473</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8434320688247681</v>
+        <v>0.8421376347541809</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7424085140228271</v>
+        <v>0.7610155344009399</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7266001105308533</v>
+        <v>0.712368369102478</v>
       </c>
       <c r="J3" t="n">
-        <v>0.615504264831543</v>
+        <v>0.654374361038208</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8127338886260986</v>
+        <v>0.7984018325805664</v>
       </c>
     </row>
     <row r="4">
@@ -566,34 +566,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7454752326011658</v>
+        <v>0.7541998624801636</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7192419767379761</v>
+        <v>0.7323428392410278</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>1.000000238418579</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7408737540245056</v>
+        <v>0.7559378743171692</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7584171891212463</v>
+        <v>0.76910400390625</v>
       </c>
       <c r="G4" t="n">
-        <v>0.716675341129303</v>
+        <v>0.7003699541091919</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8020327091217041</v>
+        <v>0.8251941204071045</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8665978312492371</v>
+        <v>0.8726183176040649</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7067409753799438</v>
+        <v>0.7566239833831787</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7766479849815369</v>
+        <v>0.7670184373855591</v>
       </c>
     </row>
     <row r="5">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8792461156845093</v>
+        <v>0.8820524215698242</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6774135828018188</v>
+        <v>0.6839439868927002</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7408737540245056</v>
+        <v>0.7559378743171692</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999998807907104</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7482019066810608</v>
+        <v>0.7830650210380554</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6485868692398071</v>
+        <v>0.6742895841598511</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7209055423736572</v>
+        <v>0.7443308234214783</v>
       </c>
       <c r="I5" t="n">
-        <v>0.726871132850647</v>
+        <v>0.7388046979904175</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8350530862808228</v>
+        <v>0.8537962436676025</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8778906464576721</v>
+        <v>0.9000411629676819</v>
       </c>
     </row>
     <row r="6">
@@ -640,34 +640,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7290616035461426</v>
+        <v>0.7455089688301086</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9176108837127686</v>
+        <v>0.9084877967834473</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7584171891212463</v>
+        <v>0.76910400390625</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7482019066810608</v>
+        <v>0.7830650210380554</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>1.00000011920929</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8513636589050293</v>
+        <v>0.8682063817977905</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8030426502227783</v>
+        <v>0.8181402683258057</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7869766354560852</v>
+        <v>0.7669186592102051</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6785732507705688</v>
+        <v>0.7206231355667114</v>
       </c>
       <c r="K6" t="n">
-        <v>0.85919189453125</v>
+        <v>0.8709323406219482</v>
       </c>
     </row>
     <row r="7">
@@ -677,34 +677,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6241777539253235</v>
+        <v>0.6300911903381348</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8434320688247681</v>
+        <v>0.8421376347541809</v>
       </c>
       <c r="D7" t="n">
-        <v>0.716675341129303</v>
+        <v>0.7003699541091919</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6485868692398071</v>
+        <v>0.6742895841598511</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8513636589050293</v>
+        <v>0.8682063817977905</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9999999403953552</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6993954181671143</v>
+        <v>0.7031421065330505</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7402524948120117</v>
+        <v>0.70376056432724</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5782282948493958</v>
+        <v>0.61134934425354</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7266737818717957</v>
+        <v>0.7251710295677185</v>
       </c>
     </row>
     <row r="8">
@@ -714,34 +714,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7133947014808655</v>
+        <v>0.7320921421051025</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7424085140228271</v>
+        <v>0.7610155344009399</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8020327091217041</v>
+        <v>0.8251941204071045</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7209055423736572</v>
+        <v>0.7443308234214783</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8030426502227783</v>
+        <v>0.8181402683258057</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6993954181671143</v>
+        <v>0.7031421065330505</v>
       </c>
       <c r="H8" t="n">
-        <v>1.000000238418579</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7551958560943604</v>
+        <v>0.7772505283355713</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7071175575256348</v>
+        <v>0.7429754734039307</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7390098571777344</v>
+        <v>0.7592593431472778</v>
       </c>
     </row>
     <row r="9">
@@ -751,34 +751,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7333975434303284</v>
+        <v>0.7435910105705261</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7266001105308533</v>
+        <v>0.712368369102478</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8665978312492371</v>
+        <v>0.8726183176040649</v>
       </c>
       <c r="E9" t="n">
-        <v>0.726871132850647</v>
+        <v>0.7388046979904175</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7869766354560852</v>
+        <v>0.7669186592102051</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7402524948120117</v>
+        <v>0.70376056432724</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7551958560943604</v>
+        <v>0.7772505283355713</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0.9999998807907104</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7411989569664001</v>
+        <v>0.7569814920425415</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7309731245040894</v>
+        <v>0.7212487459182739</v>
       </c>
     </row>
     <row r="10">
@@ -788,34 +788,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8054696917533875</v>
+        <v>0.8422662019729614</v>
       </c>
       <c r="C10" t="n">
-        <v>0.615504264831543</v>
+        <v>0.654374361038208</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7067409753799438</v>
+        <v>0.7566239833831787</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8350530862808228</v>
+        <v>0.8537962436676025</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6785732507705688</v>
+        <v>0.7206231355667114</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5782282948493958</v>
+        <v>0.61134934425354</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7071175575256348</v>
+        <v>0.7429754734039307</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7411989569664001</v>
+        <v>0.7569814920425415</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9999998807907104</v>
+        <v>0.9999999403953552</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7805336713790894</v>
+        <v>0.8234052062034607</v>
       </c>
     </row>
     <row r="11">
@@ -825,31 +825,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8457931280136108</v>
+        <v>0.8431347608566284</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8127338886260986</v>
+        <v>0.7984018325805664</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7766479849815369</v>
+        <v>0.7670184373855591</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8778906464576721</v>
+        <v>0.9000411629676819</v>
       </c>
       <c r="F11" t="n">
-        <v>0.85919189453125</v>
+        <v>0.8709323406219482</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7266737818717957</v>
+        <v>0.7251710295677185</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7390098571777344</v>
+        <v>0.7592593431472778</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7309731245040894</v>
+        <v>0.7212487459182739</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7805336713790894</v>
+        <v>0.8234052062034607</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
